--- a/Source/WineBalance.xlsx
+++ b/Source/WineBalance.xlsx
@@ -139,10 +139,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,39 +447,39 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2">
         <v>25</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H2">
@@ -487,19 +487,19 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3">
@@ -507,21 +507,21 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <f>B3/B2</f>
         <v>1.6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E4">
         <f>E2/E3</f>
         <v>5</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H4">
@@ -530,14 +530,14 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E5">
         <f>B4/E2</f>
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H5">
@@ -546,76 +546,76 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="D7" s="1" t="s">
+      <c r="B7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="G7" s="1" t="s">
+      <c r="E7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="J7" s="1" t="s">
+      <c r="H7" s="2"/>
+      <c r="J7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="M7" s="1" t="s">
+      <c r="K7" s="2"/>
+      <c r="M7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="P7" s="1" t="s">
+      <c r="N7" s="2"/>
+      <c r="P7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="1"/>
-      <c r="S7" s="1" t="s">
+      <c r="Q7" s="2"/>
+      <c r="S7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="1"/>
+      <c r="T7" s="2"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B8">
         <v>14</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E8">
         <v>25</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H8">
         <f>$N$8*0.5</f>
         <v>9</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K8">
         <f>$N$8*0.75</f>
         <v>13.5</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="N8">
         <v>18</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="P8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Q8">
         <f>$N$8*1.25</f>
         <v>22.5</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="S8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T8">
@@ -624,43 +624,43 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9">
         <v>12</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K9">
         <v>3</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N9">
         <v>8</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="P9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q9">
         <v>15</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="S9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T9">
@@ -668,49 +668,49 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B10">
         <f>B9/B8</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E10">
         <f>E8/E9</f>
         <v>5</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H10">
         <f>H8/H9</f>
         <v>9</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K10">
         <f>K8/K9</f>
         <v>4.5</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N10">
         <f>N8/N9</f>
         <v>2.25</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="P10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="Q10">
         <f>Q8/Q9</f>
         <v>1.5</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="S10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T10">
@@ -719,42 +719,42 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E11">
         <f>B10/E8</f>
         <v>3.428571428571428E-2</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H11">
         <f>H8/(1/$E11+H9)</f>
         <v>0.29834254143646405</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K11">
         <f>K8/(1/$E11+K9)</f>
         <v>0.41968911917098439</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N11">
         <f>N8/(1/$E11+N9)</f>
         <v>0.48430493273542596</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="P11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Q11">
         <f>Q8/(1/$E11+Q9)</f>
         <v>0.50943396226415094</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="S11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T11">
@@ -763,24 +763,24 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P13" s="1" t="s">
+      <c r="P13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q13" s="1"/>
-      <c r="S13" s="1" t="s">
+      <c r="Q13" s="2"/>
+      <c r="S13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T13" s="1"/>
+      <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P14" s="2" t="s">
+      <c r="P14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Q14">
         <f>$N$8*2.5</f>
         <v>45</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="S14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T14">
@@ -789,13 +789,13 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P15" s="2" t="s">
+      <c r="P15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q15">
         <v>30</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="S15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T15">
@@ -803,14 +803,14 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P16" s="2" t="s">
+      <c r="P16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="Q16">
         <f>Q14/Q15</f>
         <v>1.5</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="S16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T16">
@@ -819,14 +819,14 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P17" s="2" t="s">
+      <c r="P17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Q17">
         <f>Q14/(1/$E11+Q15)</f>
         <v>0.76056338028169013</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="S17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T17">
@@ -835,297 +835,309 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="D19" s="1" t="s">
+      <c r="B19" s="2"/>
+      <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="G19" s="1" t="s">
+      <c r="E19" s="2"/>
+      <c r="G19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="J19" s="1" t="s">
+      <c r="H19" s="2"/>
+      <c r="J19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="M19" s="1" t="s">
+      <c r="K19" s="2"/>
+      <c r="M19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N19" s="1"/>
-      <c r="P19" s="1" t="s">
+      <c r="N19" s="2"/>
+      <c r="P19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="1"/>
-      <c r="S19" s="1" t="s">
+      <c r="Q19" s="2"/>
+      <c r="S19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T19" s="1"/>
+      <c r="T19" s="2"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B20">
-        <f>17.2*0.7</f>
-        <v>12.04</v>
-      </c>
-      <c r="D20" s="2" t="s">
+        <f>19.5*0.7</f>
+        <v>13.649999999999999</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E20">
         <v>25</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H20">
-        <f>$N$8*0.5</f>
-        <v>9</v>
-      </c>
-      <c r="J20" s="2" t="s">
+        <f>$N$20*0.5</f>
+        <v>10</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K20">
-        <f>$N$8*0.75</f>
-        <v>13.5</v>
-      </c>
-      <c r="M20" s="2" t="s">
+        <f>$N$20*0.75</f>
+        <v>15</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="N20">
-        <v>18</v>
-      </c>
-      <c r="P20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Q20">
-        <f>$N$8*1.25</f>
-        <v>22.5</v>
-      </c>
-      <c r="S20" s="2" t="s">
+        <f>$N$20*1.25</f>
+        <v>25</v>
+      </c>
+      <c r="S20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T20">
-        <f>$N$8*1.5</f>
-        <v>27</v>
+        <f>$N$20*1.5</f>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B21">
         <v>12</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E21">
         <v>5</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K21">
         <v>3</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N21">
-        <v>6</v>
-      </c>
-      <c r="P21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q21">
-        <v>10.5</v>
-      </c>
-      <c r="S21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T21">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B22">
         <f>B21/B20</f>
-        <v>0.99667774086378746</v>
-      </c>
-      <c r="D22" s="2" t="s">
+        <v>0.87912087912087922</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E22">
         <f>E20/E21</f>
         <v>5</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H22">
         <f>H20/H21</f>
-        <v>9</v>
-      </c>
-      <c r="J22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K22">
         <f>K20/K21</f>
-        <v>4.5</v>
-      </c>
-      <c r="M22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N22">
         <f>N20/N21</f>
-        <v>3</v>
-      </c>
-      <c r="P22" s="2" t="s">
+        <v>2.5</v>
+      </c>
+      <c r="P22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="Q22">
         <f>Q20/Q21</f>
-        <v>2.1428571428571428</v>
-      </c>
-      <c r="S22" s="2" t="s">
+        <v>1.7857142857142858</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T22">
         <f>T20/T21</f>
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E23">
         <f>B22/E20</f>
-        <v>3.9867109634551499E-2</v>
-      </c>
-      <c r="G23" s="2" t="s">
+        <v>3.5164835164835172E-2</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H23">
         <f>H20/(1/$E23+H21)</f>
-        <v>0.34504792332268375</v>
-      </c>
-      <c r="J23" s="2" t="s">
+        <v>0.33970276008492578</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K23">
         <f>K20/(1/$E23+K21)</f>
-        <v>0.48071216617210683</v>
-      </c>
-      <c r="M23" s="2" t="s">
+        <v>0.47713717693836988</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N23">
         <f>N20/(1/$E23+N21)</f>
-        <v>0.579088471849866</v>
-      </c>
-      <c r="P23" s="2" t="s">
+        <v>0.54888507718696411</v>
+      </c>
+      <c r="P23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Q23">
         <f>Q20/(1/$E23+Q21)</f>
-        <v>0.63231850117096022</v>
-      </c>
-      <c r="S23" s="2" t="s">
+        <v>0.58910162002945521</v>
+      </c>
+      <c r="S23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T23">
         <f>T20/(1/$E23+T21)</f>
-        <v>0.67359667359667363</v>
+        <v>0.61935483870967756</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P25" s="1" t="s">
+      <c r="P25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q25" s="1"/>
-      <c r="S25" s="1" t="s">
+      <c r="Q25" s="2"/>
+      <c r="S25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T25" s="1"/>
+      <c r="T25" s="2"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P26" s="2" t="s">
+      <c r="P26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Q26">
-        <f>$N$8*2.5</f>
-        <v>45</v>
-      </c>
-      <c r="S26" s="2" t="s">
+        <f>$N$20*2.5</f>
+        <v>50</v>
+      </c>
+      <c r="S26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T26">
-        <f>$N$8*5</f>
-        <v>90</v>
+        <f>$N$20*5</f>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P27" s="2" t="s">
+      <c r="P27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q27">
-        <v>40</v>
-      </c>
-      <c r="S27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T27">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P28" s="2" t="s">
+      <c r="P28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="Q28">
         <f>Q26/Q27</f>
-        <v>1.125</v>
-      </c>
-      <c r="S28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T28">
         <f>T26/T27</f>
-        <v>0.9</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P29" s="2" t="s">
+      <c r="P29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Q29">
         <f>Q26/(1/$E23+Q27)</f>
-        <v>0.69142125480153649</v>
-      </c>
-      <c r="S29" s="2" t="s">
+        <v>0.63745019920318724</v>
+      </c>
+      <c r="S29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T29">
         <f>T26/(1/$E23+T27)</f>
-        <v>0.71952031978680886</v>
+        <v>0.67368421052631577</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="S25:T25"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="D19:E19"/>
@@ -1135,18 +1147,6 @@
     <mergeCell ref="P19:Q19"/>
     <mergeCell ref="S19:T19"/>
     <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
